--- a/medicine/Psychotrope/The_Coffee_Bean_&_Tea_Leaf/The_Coffee_Bean_&_Tea_Leaf.xlsx
+++ b/medicine/Psychotrope/The_Coffee_Bean_&_Tea_Leaf/The_Coffee_Bean_&_Tea_Leaf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The_Coffee_Bean_%26_Tea_Leaf</t>
+          <t>The_Coffee_Bean_&amp;_Tea_Leaf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coffee Bean &amp; Tea Leaf (que l'on appelle le plus souvent « The Coffee Bean » ou « Coffee Bean ») est une chaine de cafés de Los Angeles, Californie, qui appartient au groupe International Coffee &amp; Tea, LLC. Le premier de ces cafés ouvre en septembre 1968. La chaine a ouvert dans plus de 750 endroits dans 22 pays. Aux USA, The Coffee Bean est situé principalement à San Francisco, Phoenix, Las Vegas, Honolulu, au Texas, et à Détroit. La plupart sont dans le Sud de la Californie, ce qui inclut Los Angeles, San Diego, Santa Barbara et Ventura. Les cafés en dehors de la Californie sont des franchises, comme à Hawaii. 
 Un accès gratuit au Wi-Fi est disponible dans la plupart des cafés. Coffee Bean &amp; Tea Leaf est présent en Allemagne, en Australie, à Brunei, en Chine, en Égypte, en Inde, en Indonésie, en Israël, en Corée du Sud, au Koweït, en Malaisie, au Mexique, au Maroc, aux Philippines, au Qatar, à Singapour, au Sri Lanka, au Cambodge, et au Vietnam.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The_Coffee_Bean_%26_Tea_Leaf</t>
+          <t>The_Coffee_Bean_&amp;_Tea_Leaf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Du café Casher</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ensemble des produits en vente (café, thé, pâtisseries ...) sont certifiés casher[réf. nécessaire].
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The_Coffee_Bean_%26_Tea_Leaf</t>
+          <t>The_Coffee_Bean_&amp;_Tea_Leaf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'entreprise apparaît dans le jeu vidéo Grand Theft Auto 5 sous le nom de Cool Beans.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The_Coffee_Bean_%26_Tea_Leaf</t>
+          <t>The_Coffee_Bean_&amp;_Tea_Leaf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Ses concurrents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Peet's Coffee &amp; Tea
 Starbucks
